--- a/storage/pony_2.xlsx
+++ b/storage/pony_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a123/Sites/Commercial/xmail/storage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC455C6-2090-2240-A5EE-1B694830986C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6252C3-AF77-C244-B957-E6C59F572760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="23260" windowHeight="12580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36540" yWindow="-6940" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="57" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="383">
   <si>
     <r>
       <rPr>
@@ -3728,6 +3728,9 @@
   <si>
     <t>EMS служба доставки</t>
   </si>
+  <si>
+    <t>5;19</t>
+  </si>
 </sst>
 </file>
 
@@ -3985,12 +3988,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -4011,6 +4008,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4316,50 +4319,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC29E7CC-A6BA-D34B-9256-9FDFC4CB4320}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="45" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" ht="45" x14ac:dyDescent="0.15">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="40" t="s">
         <v>363</v>
       </c>
       <c r="C1" s="20">
         <v>0.5</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="40" t="s">
+        <v>382</v>
+      </c>
+      <c r="E1" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="F1" s="40" t="s">
         <v>365</v>
       </c>
-      <c r="E1" s="20">
+      <c r="G1" s="20">
         <v>1</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="H1" s="40" t="s">
         <v>366</v>
-      </c>
-      <c r="G1" s="15">
-        <v>1</v>
-      </c>
-      <c r="H1" s="36" t="s">
-        <v>367</v>
       </c>
       <c r="I1" s="15">
         <v>1</v>
       </c>
-      <c r="J1" s="36" t="s">
-        <v>368</v>
+      <c r="J1" s="34" t="s">
+        <v>367</v>
       </c>
       <c r="K1" s="15">
         <v>1</v>
       </c>
+      <c r="L1" s="34" t="s">
+        <v>368</v>
+      </c>
+      <c r="M1" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="17">
         <v>0</v>
       </c>
@@ -4367,34 +4376,40 @@
         <v>700</v>
       </c>
       <c r="C2" s="19">
+        <v>17</v>
+      </c>
+      <c r="D2" s="19">
+        <v>853</v>
+      </c>
+      <c r="E2" s="19">
         <v>11</v>
       </c>
-      <c r="D2" s="19">
+      <c r="F2" s="19">
         <v>1183</v>
       </c>
-      <c r="E2" s="19">
+      <c r="G2" s="19">
         <v>16</v>
       </c>
-      <c r="F2" s="19">
+      <c r="H2" s="19">
         <v>2143</v>
       </c>
-      <c r="G2" s="17">
+      <c r="I2" s="17">
         <v>12</v>
       </c>
-      <c r="H2" s="17">
+      <c r="J2" s="17">
         <v>4183</v>
       </c>
-      <c r="I2" s="17">
+      <c r="K2" s="17">
         <v>11</v>
       </c>
-      <c r="J2" s="17">
+      <c r="L2" s="17">
         <v>6933</v>
       </c>
-      <c r="K2" s="17">
+      <c r="M2" s="17">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="17">
         <v>1</v>
       </c>
@@ -4402,34 +4417,40 @@
         <v>957</v>
       </c>
       <c r="C3" s="19">
+        <v>47</v>
+      </c>
+      <c r="D3" s="19">
+        <v>1380</v>
+      </c>
+      <c r="E3" s="19">
         <v>34</v>
       </c>
-      <c r="D3" s="19">
+      <c r="F3" s="19">
         <v>2400</v>
       </c>
-      <c r="E3" s="19">
+      <c r="G3" s="19">
         <v>65</v>
       </c>
-      <c r="F3" s="19">
+      <c r="H3" s="19">
         <v>6300</v>
       </c>
-      <c r="G3" s="17">
+      <c r="I3" s="17">
         <v>60</v>
       </c>
-      <c r="H3" s="17">
+      <c r="J3" s="17">
         <v>16500</v>
       </c>
-      <c r="I3" s="17">
+      <c r="K3" s="17">
         <v>59</v>
       </c>
-      <c r="J3" s="17">
+      <c r="L3" s="17">
         <v>31250</v>
       </c>
-      <c r="K3" s="17">
+      <c r="M3" s="17">
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="17">
         <v>2</v>
       </c>
@@ -4437,34 +4458,40 @@
         <v>1119</v>
       </c>
       <c r="C4" s="19">
+        <v>75</v>
+      </c>
+      <c r="D4" s="19">
+        <v>1794</v>
+      </c>
+      <c r="E4" s="19">
         <v>54</v>
       </c>
-      <c r="D4" s="19">
+      <c r="F4" s="19">
         <v>3414</v>
       </c>
-      <c r="E4" s="19">
+      <c r="G4" s="19">
         <v>98</v>
       </c>
-      <c r="F4" s="19">
+      <c r="H4" s="19">
         <v>9294</v>
       </c>
-      <c r="G4" s="17">
+      <c r="I4" s="17">
         <v>86</v>
       </c>
-      <c r="H4" s="17">
+      <c r="J4" s="17">
         <v>23914</v>
       </c>
-      <c r="I4" s="17">
+      <c r="K4" s="17">
         <v>84</v>
       </c>
-      <c r="J4" s="17">
+      <c r="L4" s="17">
         <v>44914</v>
       </c>
-      <c r="K4" s="17">
+      <c r="M4" s="17">
         <v>177</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="17">
         <v>3</v>
       </c>
@@ -4472,34 +4499,40 @@
         <v>1257</v>
       </c>
       <c r="C5" s="19">
+        <v>99</v>
+      </c>
+      <c r="D5" s="19">
+        <v>2148</v>
+      </c>
+      <c r="E5" s="19">
         <v>72</v>
       </c>
-      <c r="D5" s="19">
+      <c r="F5" s="19">
         <v>4308</v>
       </c>
-      <c r="E5" s="19">
+      <c r="G5" s="19">
         <v>134</v>
       </c>
-      <c r="F5" s="19">
+      <c r="H5" s="19">
         <v>12348</v>
       </c>
-      <c r="G5" s="17">
+      <c r="I5" s="17">
         <v>111</v>
       </c>
-      <c r="H5" s="17">
+      <c r="J5" s="17">
         <v>31218</v>
       </c>
-      <c r="I5" s="17">
+      <c r="K5" s="17">
         <v>110</v>
       </c>
-      <c r="J5" s="17">
+      <c r="L5" s="17">
         <v>58718</v>
       </c>
-      <c r="K5" s="17">
+      <c r="M5" s="17">
         <v>226</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="17">
         <v>4</v>
       </c>
@@ -4507,34 +4540,40 @@
         <v>1275</v>
       </c>
       <c r="C6" s="19">
+        <v>131</v>
+      </c>
+      <c r="D6" s="19">
+        <v>2454</v>
+      </c>
+      <c r="E6" s="19">
         <v>95</v>
       </c>
-      <c r="D6" s="19">
+      <c r="F6" s="19">
         <v>5304</v>
       </c>
-      <c r="E6" s="19">
+      <c r="G6" s="19">
         <v>189</v>
       </c>
-      <c r="F6" s="19">
+      <c r="H6" s="19">
         <v>16644</v>
       </c>
-      <c r="G6" s="17">
+      <c r="I6" s="17">
         <v>160</v>
       </c>
-      <c r="H6" s="17">
+      <c r="J6" s="17">
         <v>43844</v>
       </c>
-      <c r="I6" s="17">
+      <c r="K6" s="17">
         <v>158</v>
       </c>
-      <c r="J6" s="17">
+      <c r="L6" s="17">
         <v>83344</v>
       </c>
-      <c r="K6" s="17">
+      <c r="M6" s="17">
         <v>323</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="17">
         <v>5</v>
       </c>
@@ -4542,34 +4581,40 @@
         <v>1388</v>
       </c>
       <c r="C7" s="19">
+        <v>173</v>
+      </c>
+      <c r="D7" s="19">
+        <v>2945</v>
+      </c>
+      <c r="E7" s="19">
         <v>138</v>
       </c>
-      <c r="D7" s="19">
+      <c r="F7" s="19">
         <v>7085</v>
       </c>
-      <c r="E7" s="19">
+      <c r="G7" s="19">
         <v>260</v>
       </c>
-      <c r="F7" s="19">
+      <c r="H7" s="19">
         <v>22685</v>
       </c>
-      <c r="G7" s="17">
+      <c r="I7" s="17">
         <v>222</v>
       </c>
-      <c r="H7" s="17">
+      <c r="J7" s="17">
         <v>60425</v>
       </c>
-      <c r="I7" s="17">
+      <c r="K7" s="17">
         <v>220</v>
       </c>
-      <c r="J7" s="17">
+      <c r="L7" s="17">
         <v>115425</v>
       </c>
-      <c r="K7" s="17">
+      <c r="M7" s="17">
         <v>450</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="17">
         <v>6</v>
       </c>
@@ -4577,34 +4622,40 @@
         <v>1544</v>
       </c>
       <c r="C8" s="19">
+        <v>234</v>
+      </c>
+      <c r="D8" s="19">
+        <v>3650</v>
+      </c>
+      <c r="E8" s="19">
         <v>156</v>
       </c>
-      <c r="D8" s="19">
+      <c r="F8" s="19">
         <v>8330</v>
       </c>
-      <c r="E8" s="19">
+      <c r="G8" s="19">
         <v>303</v>
       </c>
-      <c r="F8" s="19">
+      <c r="H8" s="19">
         <v>26510</v>
       </c>
-      <c r="G8" s="17">
+      <c r="I8" s="17">
         <v>297</v>
       </c>
-      <c r="H8" s="17">
+      <c r="J8" s="17">
         <v>77000</v>
       </c>
-      <c r="I8" s="17">
+      <c r="K8" s="17">
         <v>294</v>
       </c>
-      <c r="J8" s="17">
+      <c r="L8" s="17">
         <v>150500</v>
       </c>
-      <c r="K8" s="17">
+      <c r="M8" s="17">
         <v>602</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="17">
         <v>7</v>
       </c>
@@ -4612,34 +4663,40 @@
         <v>1594</v>
       </c>
       <c r="C9" s="19">
+        <v>240</v>
+      </c>
+      <c r="D9" s="19">
+        <v>3754</v>
+      </c>
+      <c r="E9" s="19">
         <v>183</v>
       </c>
-      <c r="D9" s="19">
+      <c r="F9" s="19">
         <v>9244</v>
       </c>
-      <c r="E9" s="19">
+      <c r="G9" s="19">
         <v>356</v>
       </c>
-      <c r="F9" s="19">
+      <c r="H9" s="19">
         <v>30604</v>
       </c>
-      <c r="G9" s="17">
+      <c r="I9" s="17">
         <v>305</v>
       </c>
-      <c r="H9" s="17">
+      <c r="J9" s="17">
         <v>82454</v>
       </c>
-      <c r="I9" s="17">
+      <c r="K9" s="17">
         <v>303</v>
       </c>
-      <c r="J9" s="17">
+      <c r="L9" s="17">
         <v>158204</v>
       </c>
-      <c r="K9" s="17">
+      <c r="M9" s="17">
         <v>617</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="17">
         <v>8</v>
       </c>
@@ -4647,34 +4704,40 @@
         <v>1869</v>
       </c>
       <c r="C10" s="19">
+        <v>288</v>
+      </c>
+      <c r="D10" s="19">
+        <v>4461</v>
+      </c>
+      <c r="E10" s="19">
         <v>210</v>
       </c>
-      <c r="D10" s="19">
+      <c r="F10" s="19">
         <v>10761</v>
       </c>
-      <c r="E10" s="19">
+      <c r="G10" s="19">
         <v>407</v>
       </c>
-      <c r="F10" s="19">
+      <c r="H10" s="19">
         <v>35181</v>
       </c>
-      <c r="G10" s="17">
+      <c r="I10" s="17">
         <v>375</v>
       </c>
-      <c r="H10" s="17">
+      <c r="J10" s="17">
         <v>98931</v>
       </c>
-      <c r="I10" s="17">
+      <c r="K10" s="17">
         <v>372</v>
       </c>
-      <c r="J10" s="17">
+      <c r="L10" s="17">
         <v>191931</v>
       </c>
-      <c r="K10" s="17">
+      <c r="M10" s="17">
         <v>758</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="17">
         <v>9</v>
       </c>
@@ -4682,34 +4745,40 @@
         <v>1944</v>
       </c>
       <c r="C11" s="19">
+        <v>327</v>
+      </c>
+      <c r="D11" s="19">
+        <v>4887</v>
+      </c>
+      <c r="E11" s="19">
         <v>280</v>
       </c>
-      <c r="D11" s="19">
+      <c r="F11" s="19">
         <v>13287</v>
       </c>
-      <c r="E11" s="19">
+      <c r="G11" s="19">
         <v>545</v>
       </c>
-      <c r="F11" s="19">
+      <c r="H11" s="19">
         <v>45987</v>
       </c>
-      <c r="G11" s="17">
+      <c r="I11" s="17">
         <v>448</v>
       </c>
-      <c r="H11" s="17">
+      <c r="J11" s="17">
         <v>122147</v>
       </c>
-      <c r="I11" s="17">
+      <c r="K11" s="17">
         <v>446</v>
       </c>
-      <c r="J11" s="17">
+      <c r="L11" s="17">
         <v>233647</v>
       </c>
-      <c r="K11" s="17">
+      <c r="M11" s="17">
         <v>905</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="17">
         <v>10</v>
       </c>
@@ -4717,28 +4786,34 @@
         <v>2125</v>
       </c>
       <c r="C12" s="19">
+        <v>258</v>
+      </c>
+      <c r="D12" s="19">
+        <v>4447</v>
+      </c>
+      <c r="E12" s="19">
         <v>257</v>
       </c>
-      <c r="D12" s="19">
+      <c r="F12" s="19">
         <v>12157</v>
       </c>
-      <c r="E12" s="19">
+      <c r="G12" s="19">
         <v>514</v>
       </c>
-      <c r="F12" s="19">
+      <c r="H12" s="19">
         <v>42997</v>
-      </c>
-      <c r="G12" s="17">
-        <v>514</v>
-      </c>
-      <c r="H12" s="17">
-        <v>130377</v>
       </c>
       <c r="I12" s="17">
         <v>514</v>
       </c>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
+      <c r="J12" s="17">
+        <v>130377</v>
+      </c>
+      <c r="K12" s="17">
+        <v>514</v>
+      </c>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4785,61 +4860,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="42.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="34"/>
-      <c r="AJ1" s="34"/>
-      <c r="AK1" s="34"/>
-      <c r="AL1" s="34"/>
-      <c r="AM1" s="34"/>
-      <c r="AN1" s="34"/>
-      <c r="AO1" s="34"/>
-      <c r="AP1" s="34"/>
-      <c r="AQ1" s="34"/>
-      <c r="AR1" s="34"/>
-      <c r="AS1" s="34"/>
-      <c r="AT1" s="34"/>
-      <c r="AU1" s="34"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="41"/>
+      <c r="AB1" s="41"/>
+      <c r="AC1" s="41"/>
+      <c r="AD1" s="41"/>
+      <c r="AE1" s="41"/>
+      <c r="AF1" s="41"/>
+      <c r="AG1" s="41"/>
+      <c r="AH1" s="41"/>
+      <c r="AI1" s="41"/>
+      <c r="AJ1" s="41"/>
+      <c r="AK1" s="41"/>
+      <c r="AL1" s="41"/>
+      <c r="AM1" s="41"/>
+      <c r="AN1" s="41"/>
+      <c r="AO1" s="41"/>
+      <c r="AP1" s="41"/>
+      <c r="AQ1" s="41"/>
+      <c r="AR1" s="41"/>
+      <c r="AS1" s="41"/>
+      <c r="AT1" s="41"/>
+      <c r="AU1" s="41"/>
     </row>
     <row r="2" spans="1:48" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="37" t="s">
         <v>373</v>
       </c>
       <c r="C2" s="26" t="s">
@@ -4899,7 +4974,7 @@
       <c r="U2" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="V2" s="40" t="s">
+      <c r="V2" s="38" t="s">
         <v>374</v>
       </c>
       <c r="W2" s="26" t="s">
@@ -4923,7 +4998,7 @@
       <c r="AC2" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="AD2" s="39" t="s">
+      <c r="AD2" s="37" t="s">
         <v>375</v>
       </c>
       <c r="AE2" s="26" t="s">
@@ -4950,7 +5025,7 @@
       <c r="AL2" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="AM2" s="39" t="s">
+      <c r="AM2" s="37" t="s">
         <v>376</v>
       </c>
       <c r="AN2" s="27" t="s">
@@ -4974,7 +5049,7 @@
       <c r="AT2" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="AU2" s="40" t="s">
+      <c r="AU2" s="38" t="s">
         <v>377</v>
       </c>
       <c r="AV2" s="26" t="s">
@@ -11307,55 +11382,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="28.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="34"/>
-      <c r="AJ1" s="34"/>
-      <c r="AK1" s="34"/>
-      <c r="AL1" s="34"/>
-      <c r="AM1" s="34"/>
-      <c r="AN1" s="34"/>
-      <c r="AO1" s="34"/>
-      <c r="AP1" s="34"/>
-      <c r="AQ1" s="34"/>
-      <c r="AR1" s="34"/>
-      <c r="AS1" s="34"/>
-      <c r="AT1" s="34"/>
-      <c r="AU1" s="34"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="41"/>
+      <c r="AB1" s="41"/>
+      <c r="AC1" s="41"/>
+      <c r="AD1" s="41"/>
+      <c r="AE1" s="41"/>
+      <c r="AF1" s="41"/>
+      <c r="AG1" s="41"/>
+      <c r="AH1" s="41"/>
+      <c r="AI1" s="41"/>
+      <c r="AJ1" s="41"/>
+      <c r="AK1" s="41"/>
+      <c r="AL1" s="41"/>
+      <c r="AM1" s="41"/>
+      <c r="AN1" s="41"/>
+      <c r="AO1" s="41"/>
+      <c r="AP1" s="41"/>
+      <c r="AQ1" s="41"/>
+      <c r="AR1" s="41"/>
+      <c r="AS1" s="41"/>
+      <c r="AT1" s="41"/>
+      <c r="AU1" s="41"/>
     </row>
     <row r="2" spans="1:47" ht="68.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="33" t="s">
@@ -11379,7 +11454,7 @@
       <c r="G2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="39" t="s">
         <v>378</v>
       </c>
       <c r="I2" s="31" t="s">
@@ -11457,7 +11532,7 @@
       <c r="AG2" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="AH2" s="41" t="s">
+      <c r="AH2" s="39" t="s">
         <v>379</v>
       </c>
       <c r="AI2" s="31" t="s">
@@ -11478,7 +11553,7 @@
       <c r="AN2" s="31" t="s">
         <v>201</v>
       </c>
-      <c r="AO2" s="41" t="s">
+      <c r="AO2" s="39" t="s">
         <v>380</v>
       </c>
       <c r="AP2" s="31" t="s">
@@ -11487,7 +11562,7 @@
       <c r="AQ2" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="AR2" s="41" t="s">
+      <c r="AR2" s="39" t="s">
         <v>381</v>
       </c>
     </row>
@@ -17254,98 +17329,98 @@
       </c>
     </row>
     <row r="46" spans="1:45" ht="34" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="35"/>
-      <c r="B46" s="35"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="35"/>
-      <c r="I46" s="35"/>
-      <c r="J46" s="35"/>
-      <c r="K46" s="35"/>
-      <c r="L46" s="35"/>
-      <c r="M46" s="35"/>
-      <c r="N46" s="35"/>
-      <c r="O46" s="35"/>
-      <c r="P46" s="35"/>
-      <c r="Q46" s="35"/>
-      <c r="R46" s="35"/>
-      <c r="S46" s="35"/>
-      <c r="T46" s="35"/>
-      <c r="U46" s="35"/>
-      <c r="V46" s="35"/>
-      <c r="W46" s="35"/>
-      <c r="X46" s="35"/>
-      <c r="Y46" s="35"/>
-      <c r="Z46" s="35"/>
-      <c r="AA46" s="35"/>
-      <c r="AB46" s="35"/>
-      <c r="AC46" s="35"/>
-      <c r="AD46" s="35"/>
-      <c r="AE46" s="35"/>
-      <c r="AF46" s="35"/>
-      <c r="AG46" s="35"/>
-      <c r="AH46" s="35"/>
-      <c r="AI46" s="35"/>
-      <c r="AJ46" s="35"/>
-      <c r="AK46" s="35"/>
-      <c r="AL46" s="35"/>
-      <c r="AM46" s="35"/>
-      <c r="AN46" s="35"/>
-      <c r="AO46" s="35"/>
-      <c r="AP46" s="35"/>
-      <c r="AQ46" s="35"/>
-      <c r="AR46" s="35"/>
-      <c r="AS46" s="35"/>
+      <c r="A46" s="42"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="42"/>
+      <c r="I46" s="42"/>
+      <c r="J46" s="42"/>
+      <c r="K46" s="42"/>
+      <c r="L46" s="42"/>
+      <c r="M46" s="42"/>
+      <c r="N46" s="42"/>
+      <c r="O46" s="42"/>
+      <c r="P46" s="42"/>
+      <c r="Q46" s="42"/>
+      <c r="R46" s="42"/>
+      <c r="S46" s="42"/>
+      <c r="T46" s="42"/>
+      <c r="U46" s="42"/>
+      <c r="V46" s="42"/>
+      <c r="W46" s="42"/>
+      <c r="X46" s="42"/>
+      <c r="Y46" s="42"/>
+      <c r="Z46" s="42"/>
+      <c r="AA46" s="42"/>
+      <c r="AB46" s="42"/>
+      <c r="AC46" s="42"/>
+      <c r="AD46" s="42"/>
+      <c r="AE46" s="42"/>
+      <c r="AF46" s="42"/>
+      <c r="AG46" s="42"/>
+      <c r="AH46" s="42"/>
+      <c r="AI46" s="42"/>
+      <c r="AJ46" s="42"/>
+      <c r="AK46" s="42"/>
+      <c r="AL46" s="42"/>
+      <c r="AM46" s="42"/>
+      <c r="AN46" s="42"/>
+      <c r="AO46" s="42"/>
+      <c r="AP46" s="42"/>
+      <c r="AQ46" s="42"/>
+      <c r="AR46" s="42"/>
+      <c r="AS46" s="42"/>
     </row>
     <row r="47" spans="1:45" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="34"/>
-      <c r="B47" s="34"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="34"/>
-      <c r="I47" s="34"/>
-      <c r="J47" s="34"/>
-      <c r="K47" s="34"/>
-      <c r="L47" s="34"/>
-      <c r="M47" s="34"/>
-      <c r="N47" s="34"/>
-      <c r="O47" s="34"/>
-      <c r="P47" s="34"/>
-      <c r="Q47" s="34"/>
-      <c r="R47" s="34"/>
-      <c r="S47" s="34"/>
-      <c r="T47" s="34"/>
-      <c r="U47" s="34"/>
-      <c r="V47" s="34"/>
-      <c r="W47" s="34"/>
-      <c r="X47" s="34"/>
-      <c r="Y47" s="34"/>
-      <c r="Z47" s="34"/>
-      <c r="AA47" s="34"/>
-      <c r="AB47" s="34"/>
-      <c r="AC47" s="34"/>
-      <c r="AD47" s="34"/>
-      <c r="AE47" s="34"/>
-      <c r="AF47" s="34"/>
-      <c r="AG47" s="34"/>
-      <c r="AH47" s="34"/>
-      <c r="AI47" s="34"/>
-      <c r="AJ47" s="34"/>
-      <c r="AK47" s="34"/>
-      <c r="AL47" s="34"/>
-      <c r="AM47" s="34"/>
-      <c r="AN47" s="34"/>
-      <c r="AO47" s="34"/>
-      <c r="AP47" s="34"/>
-      <c r="AQ47" s="34"/>
-      <c r="AR47" s="34"/>
-      <c r="AS47" s="34"/>
+      <c r="A47" s="41"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="41"/>
+      <c r="G47" s="41"/>
+      <c r="H47" s="41"/>
+      <c r="I47" s="41"/>
+      <c r="J47" s="41"/>
+      <c r="K47" s="41"/>
+      <c r="L47" s="41"/>
+      <c r="M47" s="41"/>
+      <c r="N47" s="41"/>
+      <c r="O47" s="41"/>
+      <c r="P47" s="41"/>
+      <c r="Q47" s="41"/>
+      <c r="R47" s="41"/>
+      <c r="S47" s="41"/>
+      <c r="T47" s="41"/>
+      <c r="U47" s="41"/>
+      <c r="V47" s="41"/>
+      <c r="W47" s="41"/>
+      <c r="X47" s="41"/>
+      <c r="Y47" s="41"/>
+      <c r="Z47" s="41"/>
+      <c r="AA47" s="41"/>
+      <c r="AB47" s="41"/>
+      <c r="AC47" s="41"/>
+      <c r="AD47" s="41"/>
+      <c r="AE47" s="41"/>
+      <c r="AF47" s="41"/>
+      <c r="AG47" s="41"/>
+      <c r="AH47" s="41"/>
+      <c r="AI47" s="41"/>
+      <c r="AJ47" s="41"/>
+      <c r="AK47" s="41"/>
+      <c r="AL47" s="41"/>
+      <c r="AM47" s="41"/>
+      <c r="AN47" s="41"/>
+      <c r="AO47" s="41"/>
+      <c r="AP47" s="41"/>
+      <c r="AQ47" s="41"/>
+      <c r="AR47" s="41"/>
+      <c r="AS47" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -17361,7 +17436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62CDA689-6BA9-D140-8FBB-F345AC872060}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
@@ -17371,25 +17446,25 @@
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="40" t="s">
         <v>369</v>
       </c>
       <c r="C1" s="20">
         <v>0.5</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="40" t="s">
         <v>364</v>
       </c>
       <c r="E1" s="20">
         <v>0.5</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="40" t="s">
         <v>365</v>
       </c>
       <c r="G1" s="20">
         <v>1</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="40" t="s">
         <v>370</v>
       </c>
       <c r="I1">
@@ -17725,7 +17800,7 @@
   <dimension ref="A1:AU46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+      <selection activeCell="AM23" sqref="AM23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -17749,55 +17824,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="34"/>
-      <c r="AJ1" s="34"/>
-      <c r="AK1" s="34"/>
-      <c r="AL1" s="34"/>
-      <c r="AM1" s="34"/>
-      <c r="AN1" s="34"/>
-      <c r="AO1" s="34"/>
-      <c r="AP1" s="34"/>
-      <c r="AQ1" s="34"/>
-      <c r="AR1" s="34"/>
-      <c r="AS1" s="34"/>
-      <c r="AT1" s="34"/>
-      <c r="AU1" s="34"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="41"/>
+      <c r="AB1" s="41"/>
+      <c r="AC1" s="41"/>
+      <c r="AD1" s="41"/>
+      <c r="AE1" s="41"/>
+      <c r="AF1" s="41"/>
+      <c r="AG1" s="41"/>
+      <c r="AH1" s="41"/>
+      <c r="AI1" s="41"/>
+      <c r="AJ1" s="41"/>
+      <c r="AK1" s="41"/>
+      <c r="AL1" s="41"/>
+      <c r="AM1" s="41"/>
+      <c r="AN1" s="41"/>
+      <c r="AO1" s="41"/>
+      <c r="AP1" s="41"/>
+      <c r="AQ1" s="41"/>
+      <c r="AR1" s="41"/>
+      <c r="AS1" s="41"/>
+      <c r="AT1" s="41"/>
+      <c r="AU1" s="41"/>
     </row>
     <row r="2" spans="1:47" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
@@ -17854,7 +17929,7 @@
       <c r="R2" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="S2" s="38" t="s">
+      <c r="S2" s="36" t="s">
         <v>372</v>
       </c>
       <c r="T2" s="7" t="s">
@@ -17923,7 +17998,7 @@
       <c r="AO2" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="AP2" s="37" t="s">
+      <c r="AP2" s="35" t="s">
         <v>371</v>
       </c>
       <c r="AQ2" s="7" t="s">
@@ -24147,61 +24222,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="36.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="34"/>
-      <c r="AJ1" s="34"/>
-      <c r="AK1" s="34"/>
-      <c r="AL1" s="34"/>
-      <c r="AM1" s="34"/>
-      <c r="AN1" s="34"/>
-      <c r="AO1" s="34"/>
-      <c r="AP1" s="34"/>
-      <c r="AQ1" s="34"/>
-      <c r="AR1" s="34"/>
-      <c r="AS1" s="34"/>
-      <c r="AT1" s="34"/>
-      <c r="AU1" s="34"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="41"/>
+      <c r="AB1" s="41"/>
+      <c r="AC1" s="41"/>
+      <c r="AD1" s="41"/>
+      <c r="AE1" s="41"/>
+      <c r="AF1" s="41"/>
+      <c r="AG1" s="41"/>
+      <c r="AH1" s="41"/>
+      <c r="AI1" s="41"/>
+      <c r="AJ1" s="41"/>
+      <c r="AK1" s="41"/>
+      <c r="AL1" s="41"/>
+      <c r="AM1" s="41"/>
+      <c r="AN1" s="41"/>
+      <c r="AO1" s="41"/>
+      <c r="AP1" s="41"/>
+      <c r="AQ1" s="41"/>
+      <c r="AR1" s="41"/>
+      <c r="AS1" s="41"/>
+      <c r="AT1" s="41"/>
+      <c r="AU1" s="41"/>
     </row>
     <row r="2" spans="1:48" ht="63.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="37" t="s">
         <v>373</v>
       </c>
       <c r="C2" s="11" t="s">
@@ -24261,7 +24336,7 @@
       <c r="U2" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="V2" s="40" t="s">
+      <c r="V2" s="38" t="s">
         <v>374</v>
       </c>
       <c r="W2" s="11" t="s">
@@ -24285,7 +24360,7 @@
       <c r="AC2" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="AD2" s="39" t="s">
+      <c r="AD2" s="37" t="s">
         <v>375</v>
       </c>
       <c r="AE2" s="11" t="s">
@@ -24312,7 +24387,7 @@
       <c r="AL2" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="AM2" s="39" t="s">
+      <c r="AM2" s="37" t="s">
         <v>376</v>
       </c>
       <c r="AN2" s="12" t="s">
@@ -24336,7 +24411,7 @@
       <c r="AT2" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="AU2" s="40" t="s">
+      <c r="AU2" s="38" t="s">
         <v>377</v>
       </c>
       <c r="AV2" s="11" t="s">
@@ -30816,55 +30891,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="39.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="34"/>
-      <c r="AJ1" s="34"/>
-      <c r="AK1" s="34"/>
-      <c r="AL1" s="34"/>
-      <c r="AM1" s="34"/>
-      <c r="AN1" s="34"/>
-      <c r="AO1" s="34"/>
-      <c r="AP1" s="34"/>
-      <c r="AQ1" s="34"/>
-      <c r="AR1" s="34"/>
-      <c r="AS1" s="34"/>
-      <c r="AT1" s="34"/>
-      <c r="AU1" s="34"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="41"/>
+      <c r="AB1" s="41"/>
+      <c r="AC1" s="41"/>
+      <c r="AD1" s="41"/>
+      <c r="AE1" s="41"/>
+      <c r="AF1" s="41"/>
+      <c r="AG1" s="41"/>
+      <c r="AH1" s="41"/>
+      <c r="AI1" s="41"/>
+      <c r="AJ1" s="41"/>
+      <c r="AK1" s="41"/>
+      <c r="AL1" s="41"/>
+      <c r="AM1" s="41"/>
+      <c r="AN1" s="41"/>
+      <c r="AO1" s="41"/>
+      <c r="AP1" s="41"/>
+      <c r="AQ1" s="41"/>
+      <c r="AR1" s="41"/>
+      <c r="AS1" s="41"/>
+      <c r="AT1" s="41"/>
+      <c r="AU1" s="41"/>
     </row>
     <row r="2" spans="1:47" ht="69.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -30888,7 +30963,7 @@
       <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="39" t="s">
         <v>378</v>
       </c>
       <c r="I2" s="2" t="s">
@@ -30966,7 +31041,7 @@
       <c r="AG2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AH2" s="41" t="s">
+      <c r="AH2" s="39" t="s">
         <v>379</v>
       </c>
       <c r="AI2" s="2" t="s">
@@ -30987,7 +31062,7 @@
       <c r="AN2" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="AO2" s="41" t="s">
+      <c r="AO2" s="39" t="s">
         <v>380</v>
       </c>
       <c r="AP2" s="2" t="s">
@@ -36932,55 +37007,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="33.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="34"/>
-      <c r="AJ1" s="34"/>
-      <c r="AK1" s="34"/>
-      <c r="AL1" s="34"/>
-      <c r="AM1" s="34"/>
-      <c r="AN1" s="34"/>
-      <c r="AO1" s="34"/>
-      <c r="AP1" s="34"/>
-      <c r="AQ1" s="34"/>
-      <c r="AR1" s="34"/>
-      <c r="AS1" s="34"/>
-      <c r="AT1" s="34"/>
-      <c r="AU1" s="34"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="41"/>
+      <c r="AB1" s="41"/>
+      <c r="AC1" s="41"/>
+      <c r="AD1" s="41"/>
+      <c r="AE1" s="41"/>
+      <c r="AF1" s="41"/>
+      <c r="AG1" s="41"/>
+      <c r="AH1" s="41"/>
+      <c r="AI1" s="41"/>
+      <c r="AJ1" s="41"/>
+      <c r="AK1" s="41"/>
+      <c r="AL1" s="41"/>
+      <c r="AM1" s="41"/>
+      <c r="AN1" s="41"/>
+      <c r="AO1" s="41"/>
+      <c r="AP1" s="41"/>
+      <c r="AQ1" s="41"/>
+      <c r="AR1" s="41"/>
+      <c r="AS1" s="41"/>
+      <c r="AT1" s="41"/>
+      <c r="AU1" s="41"/>
     </row>
     <row r="2" spans="1:47" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
@@ -37037,7 +37112,7 @@
       <c r="R2" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="S2" s="38" t="s">
+      <c r="S2" s="36" t="s">
         <v>372</v>
       </c>
       <c r="T2" s="23" t="s">
@@ -37106,7 +37181,7 @@
       <c r="AO2" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="AP2" s="37" t="s">
+      <c r="AP2" s="35" t="s">
         <v>371</v>
       </c>
       <c r="AQ2" s="23" t="s">
@@ -43750,61 +43825,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="35.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="34"/>
-      <c r="AJ1" s="34"/>
-      <c r="AK1" s="34"/>
-      <c r="AL1" s="34"/>
-      <c r="AM1" s="34"/>
-      <c r="AN1" s="34"/>
-      <c r="AO1" s="34"/>
-      <c r="AP1" s="34"/>
-      <c r="AQ1" s="34"/>
-      <c r="AR1" s="34"/>
-      <c r="AS1" s="34"/>
-      <c r="AT1" s="34"/>
-      <c r="AU1" s="34"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="41"/>
+      <c r="AB1" s="41"/>
+      <c r="AC1" s="41"/>
+      <c r="AD1" s="41"/>
+      <c r="AE1" s="41"/>
+      <c r="AF1" s="41"/>
+      <c r="AG1" s="41"/>
+      <c r="AH1" s="41"/>
+      <c r="AI1" s="41"/>
+      <c r="AJ1" s="41"/>
+      <c r="AK1" s="41"/>
+      <c r="AL1" s="41"/>
+      <c r="AM1" s="41"/>
+      <c r="AN1" s="41"/>
+      <c r="AO1" s="41"/>
+      <c r="AP1" s="41"/>
+      <c r="AQ1" s="41"/>
+      <c r="AR1" s="41"/>
+      <c r="AS1" s="41"/>
+      <c r="AT1" s="41"/>
+      <c r="AU1" s="41"/>
     </row>
     <row r="2" spans="1:48" ht="63.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="37" t="s">
         <v>373</v>
       </c>
       <c r="C2" s="26" t="s">
@@ -43864,7 +43939,7 @@
       <c r="U2" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="V2" s="40" t="s">
+      <c r="V2" s="38" t="s">
         <v>374</v>
       </c>
       <c r="W2" s="26" t="s">
@@ -43888,7 +43963,7 @@
       <c r="AC2" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="AD2" s="39" t="s">
+      <c r="AD2" s="37" t="s">
         <v>375</v>
       </c>
       <c r="AE2" s="26" t="s">
@@ -43915,7 +43990,7 @@
       <c r="AL2" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="AM2" s="39" t="s">
+      <c r="AM2" s="37" t="s">
         <v>376</v>
       </c>
       <c r="AN2" s="27" t="s">
@@ -43939,7 +44014,7 @@
       <c r="AT2" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="AU2" s="40" t="s">
+      <c r="AU2" s="38" t="s">
         <v>377</v>
       </c>
       <c r="AV2" s="26" t="s">
@@ -50843,55 +50918,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="33.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="34"/>
-      <c r="AJ1" s="34"/>
-      <c r="AK1" s="34"/>
-      <c r="AL1" s="34"/>
-      <c r="AM1" s="34"/>
-      <c r="AN1" s="34"/>
-      <c r="AO1" s="34"/>
-      <c r="AP1" s="34"/>
-      <c r="AQ1" s="34"/>
-      <c r="AR1" s="34"/>
-      <c r="AS1" s="34"/>
-      <c r="AT1" s="34"/>
-      <c r="AU1" s="34"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="41"/>
+      <c r="AB1" s="41"/>
+      <c r="AC1" s="41"/>
+      <c r="AD1" s="41"/>
+      <c r="AE1" s="41"/>
+      <c r="AF1" s="41"/>
+      <c r="AG1" s="41"/>
+      <c r="AH1" s="41"/>
+      <c r="AI1" s="41"/>
+      <c r="AJ1" s="41"/>
+      <c r="AK1" s="41"/>
+      <c r="AL1" s="41"/>
+      <c r="AM1" s="41"/>
+      <c r="AN1" s="41"/>
+      <c r="AO1" s="41"/>
+      <c r="AP1" s="41"/>
+      <c r="AQ1" s="41"/>
+      <c r="AR1" s="41"/>
+      <c r="AS1" s="41"/>
+      <c r="AT1" s="41"/>
+      <c r="AU1" s="41"/>
     </row>
     <row r="2" spans="1:47" ht="68" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
@@ -50915,7 +50990,7 @@
       <c r="G2" s="23" t="s">
         <v>307</v>
       </c>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="35" t="s">
         <v>378</v>
       </c>
       <c r="I2" s="23" t="s">
@@ -50993,7 +51068,7 @@
       <c r="AG2" s="23" t="s">
         <v>282</v>
       </c>
-      <c r="AH2" s="37" t="s">
+      <c r="AH2" s="35" t="s">
         <v>379</v>
       </c>
       <c r="AI2" s="23" t="s">
@@ -51014,7 +51089,7 @@
       <c r="AN2" s="23" t="s">
         <v>276</v>
       </c>
-      <c r="AO2" s="37" t="s">
+      <c r="AO2" s="35" t="s">
         <v>380</v>
       </c>
       <c r="AP2" s="23" t="s">
@@ -51023,7 +51098,7 @@
       <c r="AQ2" s="23" t="s">
         <v>274</v>
       </c>
-      <c r="AR2" s="37" t="s">
+      <c r="AR2" s="35" t="s">
         <v>381</v>
       </c>
     </row>
@@ -57364,55 +57439,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="34.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="34"/>
-      <c r="AJ1" s="34"/>
-      <c r="AK1" s="34"/>
-      <c r="AL1" s="34"/>
-      <c r="AM1" s="34"/>
-      <c r="AN1" s="34"/>
-      <c r="AO1" s="34"/>
-      <c r="AP1" s="34"/>
-      <c r="AQ1" s="34"/>
-      <c r="AR1" s="34"/>
-      <c r="AS1" s="34"/>
-      <c r="AT1" s="34"/>
-      <c r="AU1" s="34"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="41"/>
+      <c r="AB1" s="41"/>
+      <c r="AC1" s="41"/>
+      <c r="AD1" s="41"/>
+      <c r="AE1" s="41"/>
+      <c r="AF1" s="41"/>
+      <c r="AG1" s="41"/>
+      <c r="AH1" s="41"/>
+      <c r="AI1" s="41"/>
+      <c r="AJ1" s="41"/>
+      <c r="AK1" s="41"/>
+      <c r="AL1" s="41"/>
+      <c r="AM1" s="41"/>
+      <c r="AN1" s="41"/>
+      <c r="AO1" s="41"/>
+      <c r="AP1" s="41"/>
+      <c r="AQ1" s="41"/>
+      <c r="AR1" s="41"/>
+      <c r="AS1" s="41"/>
+      <c r="AT1" s="41"/>
+      <c r="AU1" s="41"/>
     </row>
     <row r="2" spans="1:47" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
@@ -57469,7 +57544,7 @@
       <c r="R2" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="S2" s="38" t="s">
+      <c r="S2" s="36" t="s">
         <v>372</v>
       </c>
       <c r="T2" s="23" t="s">
@@ -57538,7 +57613,7 @@
       <c r="AO2" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="AP2" s="37" t="s">
+      <c r="AP2" s="35" t="s">
         <v>371</v>
       </c>
       <c r="AQ2" s="23" t="s">
